--- a/documents/Example.xlsx
+++ b/documents/Example.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Espace\SmartParking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Espace\SmartParking\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738D4AE8-5604-43EB-8DEA-718C701721C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8035487-A2E1-4F11-9504-F0F094EC58A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{8F061232-1DF5-49EC-B555-23997BD085A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{8F061232-1DF5-49EC-B555-23997BD085A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,10 @@
     <sheet name="Parking" sheetId="4" r:id="rId4"/>
     <sheet name="ParkingSlot" sheetId="5" r:id="rId5"/>
     <sheet name="ParkingSlotConfig" sheetId="6" r:id="rId6"/>
+    <sheet name="Customer" sheetId="7" r:id="rId7"/>
+    <sheet name="SubscriptionType" sheetId="8" r:id="rId8"/>
+    <sheet name="VehicleType" sheetId="9" r:id="rId9"/>
+    <sheet name="Card" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
   <si>
     <t>Tên</t>
   </si>
@@ -200,9 +204,6 @@
     <t>Tên bãi xe</t>
   </si>
   <si>
-    <t>Bãi Tầng 1 chung cư EJ</t>
-  </si>
-  <si>
     <t>Tên làn xe</t>
   </si>
   <si>
@@ -251,10 +252,115 @@
     <t>Ô tô dưới 7 chỗ</t>
   </si>
   <si>
-    <t>Bãi Tầng 1 chung cư EF</t>
-  </si>
-  <si>
     <t>Xe tăng</t>
+  </si>
+  <si>
+    <t>Mã khách hàng</t>
+  </si>
+  <si>
+    <t>Họ</t>
+  </si>
+  <si>
+    <t>Loại khách hàng</t>
+  </si>
+  <si>
+    <t>PERSONAL</t>
+  </si>
+  <si>
+    <t>Phuongtk</t>
+  </si>
+  <si>
+    <t>Trần Khánh</t>
+  </si>
+  <si>
+    <t>Phương</t>
+  </si>
+  <si>
+    <t>HaiLV</t>
+  </si>
+  <si>
+    <t>Lê Văn</t>
+  </si>
+  <si>
+    <t>Hải</t>
+  </si>
+  <si>
+    <t>Tên loại thuê bao</t>
+  </si>
+  <si>
+    <t>Vãng lai</t>
+  </si>
+  <si>
+    <t>Khách vãng lai</t>
+  </si>
+  <si>
+    <t>Vé tháng</t>
+  </si>
+  <si>
+    <t>Vé trả hàng tháng</t>
+  </si>
+  <si>
+    <t>Dân cư</t>
+  </si>
+  <si>
+    <t>Vé cho dân cư</t>
+  </si>
+  <si>
+    <t>Bãi xe chung cư A1</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>123 đồi A1 Himlam quận 1</t>
+  </si>
+  <si>
+    <t>Bãi xe cây xanh</t>
+  </si>
+  <si>
+    <t>45 Đường mới Quận 3</t>
+  </si>
+  <si>
+    <t>Loại chỗ đậu xe</t>
+  </si>
+  <si>
+    <t>Xe máy</t>
+  </si>
+  <si>
+    <t>xe máy</t>
+  </si>
+  <si>
+    <t>Tên thẻ</t>
+  </si>
+  <si>
+    <t>Mã thẻ</t>
+  </si>
+  <si>
+    <t>Loại xe</t>
+  </si>
+  <si>
+    <t>Biển số</t>
+  </si>
+  <si>
+    <t>Loại vé</t>
+  </si>
+  <si>
+    <t>IMP_THE6</t>
+  </si>
+  <si>
+    <t>RF6</t>
+  </si>
+  <si>
+    <t>Thẻ 5</t>
+  </si>
+  <si>
+    <t>RF5</t>
+  </si>
+  <si>
+    <t>IMP_THE7</t>
+  </si>
+  <si>
+    <t>RF7</t>
   </si>
 </sst>
 </file>
@@ -882,6 +988,83 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29EB63B-092B-44E9-A4DD-0644095CD1EA}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2">
+        <v>11111111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78CDDEFB-B6E5-45A0-A9A2-86DE21E5DF09}">
   <dimension ref="A1:D9"/>
@@ -1032,7 +1215,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1047,24 +1230,24 @@
         <v>52</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
-      </c>
-      <c r="D1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>36</v>
@@ -1072,33 +1255,63 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s">
         <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA181BF-9E73-4157-B08B-1FEC59D5F28A}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1107,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1795C64B-A8E2-4C8B-A3C0-DEF985D3E9F2}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,47 +1334,47 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
         <v>62</v>
-      </c>
-      <c r="B2" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" t="s">
         <v>64</v>
-      </c>
-      <c r="B3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" t="s">
         <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1174,22 +1387,24 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
+      <c r="B1" t="str">
+        <f>Parking!A2</f>
+        <v>Bãi xe chung cư A1</v>
+      </c>
+      <c r="C1" t="str">
+        <f>Parking!A3</f>
+        <v>Bãi xe cây xanh</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1200,7 +1415,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1211,7 +1426,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -1222,7 +1437,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5">
         <v>11</v>
@@ -1233,7 +1448,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B6">
         <v>234</v>
@@ -1244,13 +1459,160 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7">
         <v>111</v>
       </c>
       <c r="C7">
         <v>1111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78854B84-4782-499B-B6CA-C93BCB8F079B}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3" xr:uid="{7CCC527C-A938-4B9E-95A6-E443BCE93EE7}">
+      <formula1>"BUSSINESS,PERSONAL"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1D3C110-F6C8-4165-838A-1C75A8C8EAD7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D818772-BAEA-45AD-8639-DC64E020A28D}">
+  <dimension ref="A7:C8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/documents/Example.xlsx
+++ b/documents/Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Espace\SmartParking\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8035487-A2E1-4F11-9504-F0F094EC58A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADF3F2-401A-4C0D-9CD2-A83B684BAF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="9" xr2:uid="{8F061232-1DF5-49EC-B555-23997BD085A7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{8F061232-1DF5-49EC-B555-23997BD085A7}"/>
   </bookViews>
   <sheets>
     <sheet name="Camera" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
   <si>
     <t>Tên</t>
   </si>
@@ -992,13 +992,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C29EB63B-092B-44E9-A4DD-0644095CD1EA}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,6 +1048,9 @@
       </c>
       <c r="B3" t="s">
         <v>103</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1585,33 +1589,33 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D818772-BAEA-45AD-8639-DC64E020A28D}">
-  <dimension ref="A7:C8"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B1" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>93</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B2" t="s">
         <v>94</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C2" t="s">
         <v>93</v>
       </c>
     </row>
